--- a/teaching/traditional_assets/database/data/argentina/argentina_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/argentina/argentina_financial_svcs_non_bank_insurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.4370000000000001</v>
+        <v>0.402</v>
       </c>
       <c r="E2">
-        <v>0.384</v>
+        <v>0.446</v>
       </c>
       <c r="F2">
-        <v>-0.108</v>
+        <v>0.402</v>
       </c>
       <c r="G2">
-        <v>0.6209979770734996</v>
+        <v>0.2402573099415205</v>
       </c>
       <c r="H2">
-        <v>0.6203641267700606</v>
+        <v>0.2374269005847953</v>
       </c>
       <c r="I2">
-        <v>0.3695212407282535</v>
+        <v>0.1321637426900585</v>
       </c>
       <c r="J2">
-        <v>0.3274923608706481</v>
+        <v>0.09507542685616192</v>
       </c>
       <c r="K2">
-        <v>43.95</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="L2">
-        <v>0.2963587322993931</v>
+        <v>0.7029239766081871</v>
       </c>
       <c r="M2">
-        <v>24.74</v>
+        <v>3.46</v>
       </c>
       <c r="N2">
-        <v>0.04184709066305818</v>
+        <v>0.004093705631803123</v>
       </c>
       <c r="O2">
-        <v>0.5629124004550625</v>
+        <v>0.05757071547420965</v>
       </c>
       <c r="P2">
-        <v>16.39</v>
+        <v>1.41</v>
       </c>
       <c r="Q2">
-        <v>0.0277232746955345</v>
+        <v>0.001668244202555608</v>
       </c>
       <c r="R2">
-        <v>0.3729237770193402</v>
+        <v>0.02346089850249584</v>
       </c>
       <c r="S2">
-        <v>8.349999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="T2">
-        <v>0.3375101050929668</v>
+        <v>0.5924855491329479</v>
       </c>
       <c r="U2">
-        <v>952.9000000000001</v>
+        <v>625.2</v>
       </c>
       <c r="V2">
-        <v>1.61180649526387</v>
+        <v>0.7397065783246569</v>
       </c>
       <c r="W2">
-        <v>0.4108219505030477</v>
+        <v>0.2871681581841816</v>
       </c>
       <c r="X2">
-        <v>0.04044259009469127</v>
+        <v>0.03622499451357465</v>
       </c>
       <c r="Y2">
-        <v>0.3703793604083565</v>
+        <v>0.250943163670607</v>
       </c>
       <c r="Z2">
-        <v>-0.2449417788421835</v>
+        <v>-0.4631962164182744</v>
       </c>
       <c r="AA2">
-        <v>-0.118256365990505</v>
+        <v>-0.01671718847696089</v>
       </c>
       <c r="AB2">
-        <v>0.0409144921077513</v>
+        <v>0.03649716742596906</v>
       </c>
       <c r="AC2">
-        <v>-0.1591708580982563</v>
+        <v>-0.05321435590292995</v>
       </c>
       <c r="AD2">
-        <v>4.713</v>
+        <v>2.85</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.713</v>
+        <v>2.85</v>
       </c>
       <c r="AG2">
-        <v>-948.1870000000001</v>
+        <v>-622.35</v>
       </c>
       <c r="AH2">
-        <v>0.007908872603886809</v>
+        <v>0.003360650905017392</v>
       </c>
       <c r="AI2">
-        <v>0.01607912306857765</v>
+        <v>0.008065657280316964</v>
       </c>
       <c r="AJ2">
-        <v>2.656082714496606</v>
+        <v>-2.792685663002019</v>
       </c>
       <c r="AK2">
-        <v>1.437110764534615</v>
+        <v>2.289313959904359</v>
       </c>
       <c r="AL2">
-        <v>0.003</v>
+        <v>0.152</v>
       </c>
       <c r="AM2">
-        <v>-1.777</v>
+        <v>-6.628</v>
       </c>
       <c r="AN2">
-        <v>0.08431127012522362</v>
+        <v>0.2175572519083969</v>
       </c>
       <c r="AO2">
-        <v>18266.66666666666</v>
+        <v>74.3421052631579</v>
       </c>
       <c r="AP2">
-        <v>-16.96220035778176</v>
+        <v>-47.50763358778627</v>
       </c>
       <c r="AQ2">
-        <v>-30.83849184018008</v>
+        <v>-1.704888352444176</v>
       </c>
     </row>
     <row r="3">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.4370000000000001</v>
+        <v>0.402</v>
       </c>
       <c r="E3">
-        <v>0.384</v>
+        <v>0.446</v>
       </c>
       <c r="F3">
-        <v>-0.108</v>
+        <v>0.402</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -749,85 +749,82 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>34.2</v>
+        <v>22.7</v>
       </c>
       <c r="L3">
-        <v>0.5181818181818182</v>
+        <v>0.5170842824601367</v>
       </c>
       <c r="M3">
-        <v>10.72</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.05699096225412015</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.3134502923976608</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>8.949999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.04758107389686337</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.2616959064327485</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>1.77</v>
-      </c>
-      <c r="T3">
-        <v>0.1651119402985075</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>519.2</v>
+        <v>132</v>
       </c>
       <c r="V3">
-        <v>2.760233918128655</v>
+        <v>0.4556437694166379</v>
       </c>
       <c r="W3">
-        <v>0.7685393258426967</v>
+        <v>0.4142335766423358</v>
       </c>
       <c r="X3">
-        <v>0.04062651361467803</v>
+        <v>0.03631689228516554</v>
       </c>
       <c r="Y3">
-        <v>0.7279128122280186</v>
+        <v>0.3779166843571702</v>
       </c>
       <c r="Z3">
-        <v>-0.1765886287625418</v>
+        <v>1.346625766871166</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04156914455773733</v>
+        <v>0.03686022730674525</v>
       </c>
       <c r="AC3">
-        <v>-0.04156914455773733</v>
+        <v>-0.03686022730674525</v>
       </c>
       <c r="AD3">
-        <v>4.7</v>
+        <v>2.84</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.7</v>
+        <v>2.84</v>
       </c>
       <c r="AG3">
-        <v>-514.5</v>
+        <v>-129.16</v>
       </c>
       <c r="AH3">
-        <v>0.02437759336099585</v>
+        <v>0.009708074109523485</v>
       </c>
       <c r="AI3">
-        <v>0.07899159663865546</v>
+        <v>0.03720199109248101</v>
       </c>
       <c r="AJ3">
-        <v>1.576286764705882</v>
+        <v>-0.8045346954030148</v>
       </c>
       <c r="AK3">
-        <v>1.119208179247335</v>
+        <v>2.320517427236795</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -853,115 +850,115 @@
         </is>
       </c>
       <c r="G4">
-        <v>1.119003645200486</v>
+        <v>0.4937980769230769</v>
       </c>
       <c r="H4">
-        <v>1.117861482381531</v>
+        <v>0.4879807692307692</v>
       </c>
       <c r="I4">
-        <v>0.6658566221142163</v>
+        <v>0.2716346153846154</v>
       </c>
       <c r="J4">
-        <v>0.6658566221142163</v>
+        <v>0.1745555775839281</v>
       </c>
       <c r="K4">
-        <v>9.75</v>
+        <v>37.4</v>
       </c>
       <c r="L4">
-        <v>0.1184690157958688</v>
+        <v>0.8990384615384615</v>
       </c>
       <c r="M4">
-        <v>14.02</v>
+        <v>3.46</v>
       </c>
       <c r="N4">
-        <v>0.03478045150086827</v>
+        <v>0.006228622862286228</v>
       </c>
       <c r="O4">
-        <v>1.437948717948718</v>
+        <v>0.09251336898395722</v>
       </c>
       <c r="P4">
-        <v>7.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q4">
-        <v>0.01845695857107418</v>
+        <v>0.002538253825382538</v>
       </c>
       <c r="R4">
-        <v>0.7630769230769231</v>
+        <v>0.03770053475935829</v>
       </c>
       <c r="S4">
-        <v>6.579999999999999</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>0.4693295292439372</v>
+        <v>0.5924855491329479</v>
       </c>
       <c r="U4">
-        <v>433.7</v>
+        <v>493.2</v>
       </c>
       <c r="V4">
-        <v>1.075911684445547</v>
+        <v>0.8878487848784878</v>
       </c>
       <c r="W4">
-        <v>0.05310457516339869</v>
+        <v>0.1601027397260274</v>
       </c>
       <c r="X4">
-        <v>0.0402586665747045</v>
+        <v>0.03613309674198377</v>
       </c>
       <c r="Y4">
-        <v>0.01284590858869419</v>
+        <v>0.1239696429840436</v>
       </c>
       <c r="Z4">
-        <v>-0.3552006905481226</v>
+        <v>-0.1915400093007409</v>
       </c>
       <c r="AA4">
-        <v>-0.2365127319810099</v>
+        <v>-0.03343437695392178</v>
       </c>
       <c r="AB4">
-        <v>0.04025983965776528</v>
+        <v>0.03613410754519287</v>
       </c>
       <c r="AC4">
-        <v>-0.2767725716387752</v>
+        <v>-0.06956848449911465</v>
       </c>
       <c r="AD4">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="AG4">
-        <v>-433.687</v>
+        <v>-493.19</v>
       </c>
       <c r="AH4">
-        <v>3.224902198639091e-05</v>
+        <v>1.800147612104193e-05</v>
       </c>
       <c r="AI4">
-        <v>5.564758810511401e-05</v>
+        <v>3.609977979134327e-05</v>
       </c>
       <c r="AJ4">
-        <v>14.17880145159709</v>
+        <v>-7.915101909805809</v>
       </c>
       <c r="AK4">
-        <v>2.1674921409187</v>
+        <v>2.281280355243073</v>
       </c>
       <c r="AL4">
-        <v>0.003</v>
+        <v>0.152</v>
       </c>
       <c r="AM4">
-        <v>-1.777</v>
+        <v>-6.628</v>
       </c>
       <c r="AN4">
-        <v>0.0002325581395348837</v>
+        <v>0.0007633587786259542</v>
       </c>
       <c r="AO4">
-        <v>18266.66666666666</v>
+        <v>74.3421052631579</v>
       </c>
       <c r="AP4">
-        <v>-7.758264758497317</v>
+        <v>-37.64809160305344</v>
       </c>
       <c r="AQ4">
-        <v>-30.83849184018008</v>
+        <v>-1.704888352444176</v>
       </c>
     </row>
   </sheetData>
